--- a/数据整理/stocks/A股/创业板/301031-中熔电气.xlsx
+++ b/数据整理/stocks/A股/创业板/301031-中熔电气.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,673 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8102</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/301031-中熔电气.xlsx
+++ b/数据整理/stocks/A股/创业板/301031-中熔电气.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,91 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002345</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏高端制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7839</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1210,64 +1184,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.78</v>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/301031-中熔电气.xlsx
+++ b/数据整理/stocks/A股/创业板/301031-中熔电气.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>3.34</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.78</v>
       </c>
     </row>
@@ -515,6 +532,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015229</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1178,7 +1745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/301031-中熔电气.xlsx
+++ b/数据整理/stocks/A股/创业板/301031-中熔电气.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>2.11</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>3.34</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.78</v>
       </c>
     </row>
@@ -532,6 +549,820 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4345</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015229</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016590</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国汽车智选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016591</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国汽车智选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1081,7 +1912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1745,7 +2576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
